--- a/Base/Teams/Cowboys/Players Data.xlsx
+++ b/Base/Teams/Cowboys/Players Data.xlsx
@@ -1,27 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/136736bc97bfa800/Robbie/Football/Simulation app/Cowboys/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_DCD3E8D0B15149769DB03037F5EA457791BCF7F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BEE15E2D-EEE9-41FD-8FDC-B52481DEB5A9}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Rushing" sheetId="1" r:id="rId1"/>
     <sheet name="Receiving" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>Name</t>
   </si>
@@ -59,6 +53,9 @@
     <t>C.Wilson</t>
   </si>
   <si>
+    <t>D.Schultz</t>
+  </si>
+  <si>
     <t>Short Target</t>
   </si>
   <si>
@@ -77,6 +74,9 @@
     <t>RZ Comp</t>
   </si>
   <si>
+    <t>A.Cooper</t>
+  </si>
+  <si>
     <t>M.Gallup</t>
   </si>
   <si>
@@ -89,20 +89,14 @@
     <t>B.Jarwin</t>
   </si>
   <si>
-    <t>D.Schultz</t>
-  </si>
-  <si>
     <t>S.McKeon</t>
-  </si>
-  <si>
-    <t>A.Cooper</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,14 +159,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -219,7 +205,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -251,27 +237,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -303,24 +271,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -496,14 +446,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -520,7 +470,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -540,7 +490,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -560,7 +510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -568,10 +518,10 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="D4">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E4">
         <v>20</v>
@@ -580,7 +530,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -588,10 +538,10 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D5">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E5">
         <v>7</v>
@@ -600,7 +550,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -620,7 +570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -631,7 +581,7 @@
         <v>3</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -640,7 +590,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -657,6 +607,26 @@
         <v>1</v>
       </c>
       <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
         <v>0</v>
       </c>
     </row>
@@ -666,39 +636,37 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -706,10 +674,10 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D2">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -718,13 +686,13 @@
         <v>1</v>
       </c>
       <c r="G2">
+        <v>11</v>
+      </c>
+      <c r="H2">
         <v>10</v>
       </c>
-      <c r="H2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -732,11 +700,11 @@
         <v>8</v>
       </c>
       <c r="C3">
+        <v>26</v>
+      </c>
+      <c r="D3">
         <v>22</v>
       </c>
-      <c r="D3">
-        <v>20</v>
-      </c>
       <c r="E3">
         <v>1</v>
       </c>
@@ -744,30 +712,30 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C4">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D4">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G4">
         <v>10</v>
@@ -776,7 +744,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -784,16 +752,16 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D5">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E5">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F5">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G5">
         <v>9</v>
@@ -802,33 +770,33 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C6">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D6">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F6">
         <v>6</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -854,19 +822,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C8">
+        <v>11</v>
+      </c>
+      <c r="D8">
         <v>8</v>
       </c>
-      <c r="D8">
-        <v>6</v>
-      </c>
       <c r="E8">
         <v>3</v>
       </c>
@@ -880,18 +848,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9">
         <v>7</v>
-      </c>
-      <c r="D9">
-        <v>6</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -906,12 +874,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C10">
         <v>13</v>
@@ -932,18 +900,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C11">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D11">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E11">
         <v>8</v>
@@ -952,18 +920,18 @@
         <v>5</v>
       </c>
       <c r="G11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12">
         <v>3</v>

--- a/Base/Teams/Cowboys/Players Data.xlsx
+++ b/Base/Teams/Cowboys/Players Data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>Name</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>C.Clement</t>
+  </si>
+  <si>
+    <t>J.Hardy</t>
   </si>
   <si>
     <t>C.Lamb</t>
@@ -447,7 +450,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -481,10 +484,10 @@
         <v>11</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2">
         <v>9</v>
@@ -518,16 +521,16 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="D4">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E4">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F4">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -558,16 +561,16 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -578,16 +581,16 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -598,16 +601,16 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -624,9 +627,29 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
         <v>0</v>
       </c>
     </row>
@@ -637,7 +660,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -648,22 +671,22 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -674,19 +697,19 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H2">
         <v>10</v>
@@ -723,25 +746,25 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -749,25 +772,25 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C5">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D5">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F5">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G5">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -775,25 +798,25 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C6">
+        <v>65</v>
+      </c>
+      <c r="D6">
+        <v>45</v>
+      </c>
+      <c r="E6">
         <v>31</v>
       </c>
-      <c r="D6">
-        <v>26</v>
-      </c>
-      <c r="E6">
-        <v>8</v>
-      </c>
       <c r="F6">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="G6">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -801,25 +824,25 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C7">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="D7">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -827,25 +850,25 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C8">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D8">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -856,22 +879,22 @@
         <v>22</v>
       </c>
       <c r="C9">
+        <v>11</v>
+      </c>
+      <c r="D9">
         <v>8</v>
       </c>
-      <c r="D9">
-        <v>7</v>
-      </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -882,10 +905,10 @@
         <v>23</v>
       </c>
       <c r="C10">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D10">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -894,10 +917,10 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -905,25 +928,25 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C11">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="D11">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="E11">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -931,24 +954,50 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
         <v>0</v>
       </c>
     </row>

--- a/Base/Teams/Cowboys/Players Data.xlsx
+++ b/Base/Teams/Cowboys/Players Data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
   <si>
     <t>Name</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>S.McKeon</t>
+  </si>
+  <si>
+    <t>J.Sprinkle</t>
   </si>
 </sst>
 </file>
@@ -521,16 +524,16 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="D4">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E4">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F4">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -541,10 +544,10 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D5">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E5">
         <v>7</v>
@@ -660,7 +663,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -697,10 +700,10 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D2">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -709,10 +712,10 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H2">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -723,10 +726,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D3">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -775,22 +778,22 @@
         <v>20</v>
       </c>
       <c r="C5">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D5">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E5">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F5">
         <v>12</v>
       </c>
       <c r="G5">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -801,19 +804,19 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="D6">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E6">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F6">
         <v>16</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H6">
         <v>5</v>
@@ -827,13 +830,13 @@
         <v>21</v>
       </c>
       <c r="C7">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D7">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F7">
         <v>7</v>
@@ -905,10 +908,10 @@
         <v>23</v>
       </c>
       <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10">
         <v>8</v>
-      </c>
-      <c r="D10">
-        <v>7</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -957,10 +960,10 @@
         <v>13</v>
       </c>
       <c r="C12">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D12">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="E12">
         <v>8</v>
@@ -969,10 +972,10 @@
         <v>5</v>
       </c>
       <c r="G12">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -999,6 +1002,32 @@
       </c>
       <c r="H13">
         <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Base/Teams/Cowboys/Players Data.xlsx
+++ b/Base/Teams/Cowboys/Players Data.xlsx
@@ -484,13 +484,13 @@
         <v>5</v>
       </c>
       <c r="C2">
+        <v>12</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
         <v>11</v>
-      </c>
-      <c r="D2">
-        <v>4</v>
-      </c>
-      <c r="E2">
-        <v>10</v>
       </c>
       <c r="F2">
         <v>9</v>
@@ -504,7 +504,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -524,16 +524,16 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D4">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E4">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F4">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -544,16 +544,16 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D5">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F5">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -564,13 +564,13 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
         <v>4</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -604,7 +604,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8">
         <v>3</v>
@@ -700,10 +700,10 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -712,10 +712,10 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H2">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -726,10 +726,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D3">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -738,7 +738,7 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H3">
         <v>3</v>
@@ -778,22 +778,22 @@
         <v>20</v>
       </c>
       <c r="C5">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="D5">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E5">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F5">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5">
+        <v>17</v>
+      </c>
+      <c r="H5">
         <v>13</v>
-      </c>
-      <c r="H5">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -804,16 +804,16 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D6">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E6">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F6">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G6">
         <v>11</v>
@@ -830,22 +830,22 @@
         <v>21</v>
       </c>
       <c r="C7">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D7">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E7">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G7">
+        <v>6</v>
+      </c>
+      <c r="H7">
         <v>4</v>
-      </c>
-      <c r="H7">
-        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -856,13 +856,13 @@
         <v>12</v>
       </c>
       <c r="C8">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D8">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E8">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8">
         <v>6</v>
@@ -908,22 +908,22 @@
         <v>23</v>
       </c>
       <c r="C10">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D10">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10">
+        <v>5</v>
+      </c>
+      <c r="H10">
         <v>4</v>
-      </c>
-      <c r="H10">
-        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -960,22 +960,22 @@
         <v>13</v>
       </c>
       <c r="C12">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D12">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="E12">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F12">
         <v>5</v>
       </c>
       <c r="G12">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H12">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:8">

--- a/Base/Teams/Cowboys/Players Data.xlsx
+++ b/Base/Teams/Cowboys/Players Data.xlsx
@@ -484,16 +484,16 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E2">
+        <v>14</v>
+      </c>
+      <c r="F2">
         <v>11</v>
-      </c>
-      <c r="F2">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -524,13 +524,13 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="D4">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E4">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F4">
         <v>38</v>
@@ -544,10 +544,10 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D5">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E5">
         <v>8</v>
@@ -700,10 +700,10 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -726,10 +726,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D3">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -778,10 +778,10 @@
         <v>20</v>
       </c>
       <c r="C5">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="D5">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E5">
         <v>25</v>
@@ -790,10 +790,10 @@
         <v>13</v>
       </c>
       <c r="G5">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H5">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -804,16 +804,16 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D6">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E6">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F6">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G6">
         <v>11</v>
@@ -830,16 +830,16 @@
         <v>21</v>
       </c>
       <c r="C7">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D7">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E7">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G7">
         <v>6</v>
@@ -856,22 +856,22 @@
         <v>12</v>
       </c>
       <c r="C8">
+        <v>29</v>
+      </c>
+      <c r="D8">
         <v>24</v>
       </c>
-      <c r="D8">
-        <v>19</v>
-      </c>
       <c r="E8">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8">
+        <v>7</v>
+      </c>
+      <c r="G8">
         <v>6</v>
       </c>
-      <c r="G8">
-        <v>5</v>
-      </c>
       <c r="H8">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -960,19 +960,19 @@
         <v>13</v>
       </c>
       <c r="C12">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="D12">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E12">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F12">
         <v>5</v>
       </c>
       <c r="G12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H12">
         <v>7</v>

--- a/Base/Teams/Cowboys/Players Data.xlsx
+++ b/Base/Teams/Cowboys/Players Data.xlsx
@@ -484,16 +484,16 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F2">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -524,16 +524,16 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D4">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E4">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F4">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -544,16 +544,16 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D5">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E5">
         <v>8</v>
       </c>
       <c r="F5">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -607,7 +607,7 @@
         <v>4</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -700,10 +700,10 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -726,10 +726,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D3">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -778,22 +778,22 @@
         <v>20</v>
       </c>
       <c r="C5">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="D5">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E5">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G5">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H5">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -804,22 +804,22 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D6">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E6">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F6">
         <v>19</v>
       </c>
       <c r="G6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -856,16 +856,16 @@
         <v>12</v>
       </c>
       <c r="C8">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D8">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E8">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G8">
         <v>6</v>
@@ -908,10 +908,10 @@
         <v>23</v>
       </c>
       <c r="C10">
+        <v>12</v>
+      </c>
+      <c r="D10">
         <v>11</v>
-      </c>
-      <c r="D10">
-        <v>10</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -934,7 +934,7 @@
         <v>24</v>
       </c>
       <c r="C11">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -960,16 +960,16 @@
         <v>13</v>
       </c>
       <c r="C12">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D12">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G12">
         <v>12</v>
